--- a/trend_results/Rivers/KukuatNJohnstoneFarmBridge_14ad987cbd.xlsx
+++ b/trend_results/Rivers/KukuatNJohnstoneFarmBridge_14ad987cbd.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.179397678943471</v>
+        <v>0.820602321056529</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.995984140315884</v>
+        <v>0.004015859684116</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">

--- a/trend_results/Rivers/KukuatNJohnstoneFarmBridge_14ad987cbd.xlsx
+++ b/trend_results/Rivers/KukuatNJohnstoneFarmBridge_14ad987cbd.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.820602321056529</v>
+        <v>0.7777805887479819</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.982142857142857</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.84</v>
+        <v>9.875</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0802747252747253</v>
+        <v>0.0903090659340658</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.09909312034609249</v>
+        <v>-0.116522432242832</v>
       </c>
       <c r="M2" t="n">
-        <v>0.215831164006764</v>
+        <v>0.246651172932376</v>
       </c>
       <c r="N2" t="n">
-        <v>0.815800053604932</v>
+        <v>0.914522186674084</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.108105134178527</v>
+        <v>0.191445517051655</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0714285714285714</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.303571428571429</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.011</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0005041525525445</v>
+        <v>0.0003271673143665</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0.0002998768472906</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0012956247479462</v>
+        <v>0.0010870535714285</v>
       </c>
       <c r="N3" t="n">
-        <v>4.58320502313221</v>
+        <v>2.97424831242348</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.815903793255578</v>
+        <v>0.997047304233703</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.826086956521739</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="K4" t="n">
-        <v>-37.0498732037194</v>
+        <v>-77.5617626648161</v>
       </c>
       <c r="L4" t="n">
-        <v>-93.79632286485089</v>
+        <v>-133.656688543142</v>
       </c>
       <c r="M4" t="n">
-        <v>32.9011642992938</v>
+        <v>-40.0400291104939</v>
       </c>
       <c r="N4" t="n">
-        <v>-8.821398381837939</v>
+        <v>-18.8256705497126</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,16 +846,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9875223381641141</v>
+        <v>0.9231705779203671</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7307692307692309</v>
+        <v>0.814814814814815</v>
       </c>
       <c r="H5" t="n">
-        <v>0.326923076923077</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0.005</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -929,18 +929,18 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.708830690449324</v>
+        <v>0.999887112880613</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="H6" t="n">
         <v>0.214285714285714</v>
@@ -949,19 +949,19 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005</v>
+        <v>0.0045</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.0009487012987012</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0006689363268182</v>
+        <v>-0.001337912087912</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0002508198487233</v>
+        <v>-0.0004933655151879</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-21.0822510822511</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.643398476394115</v>
+        <v>0.168199467411071</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1043,16 +1043,16 @@
         <v>0.921</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0133243714959904</v>
+        <v>0.0415690917314393</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.074157982158449</v>
+        <v>-0.028175637183492</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0539479436666659</v>
+        <v>0.128944607384299</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.44672871834857</v>
+        <v>4.51347358647549</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.004015859684116</v>
+        <v>0.009635406531566</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.15</v>
+        <v>7.125</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0979879275653924</v>
+        <v>-0.07747839731392379</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.173928571428571</v>
+        <v>-0.140966148248435</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0342631494979297</v>
+        <v>-0.0214461758263376</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.3704605253901</v>
+        <v>-1.08741610265156</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.689608098704642</v>
+        <v>0.168223607188914</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9465</v>
+        <v>0.9425</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.018801393442623</v>
+        <v>0.0422377712330043</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.07282301815808979</v>
+        <v>-0.0293515326752144</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0561320182282551</v>
+        <v>0.127632595646602</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.9864124080954</v>
+        <v>4.48146113878029</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>0.104084061753305</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.732142857142857</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1312,16 +1312,16 @@
         <v>1.16</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.049045466763276</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.05657917383821</v>
+        <v>-0.0129085868713117</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0585446841933294</v>
+        <v>0.125948275862069</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4.22805747959276</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1388,13 +1388,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0316430763708035</v>
+        <v>0.6215405335684639</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.642857142857143</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1403,16 +1403,16 @@
         <v>0.03</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0020068681318681</v>
+        <v>-0.0004969387755102</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-0.0025119301487116</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0039969918142528</v>
+        <v>0.0013719629802319</v>
       </c>
       <c r="N11" t="n">
-        <v>6.68956043956043</v>
+        <v>-1.65646258503402</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.110335680959923</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0.157</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0123979237652882</v>
+        <v>0.0045895084913255</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0312287628750085</v>
+        <v>-0.0237099729999718</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0028115959244631</v>
+        <v>0.0146490472286005</v>
       </c>
       <c r="N12" t="n">
-        <v>-7.89676672948292</v>
+        <v>2.92325381613094</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0647756764522039</v>
+        <v>0.5</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>79</v>
       </c>
       <c r="K13" t="n">
-        <v>-3.36937208837185</v>
+        <v>0.453163771712159</v>
       </c>
       <c r="L13" t="n">
         <v>-10.0468212365821</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.686910633106198</v>
+        <v>7.06315297117198</v>
       </c>
       <c r="N13" t="n">
-        <v>-4.26502795996437</v>
+        <v>0.573625027483745</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.40324797025367</v>
+        <v>0.04320536648685</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1668,16 +1668,16 @@
         <v>4.162</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0253684921988784</v>
+        <v>-0.368051321004291</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.385394388937005</v>
+        <v>-1.12283921541135</v>
       </c>
       <c r="M14" t="n">
-        <v>0.177528955147117</v>
+        <v>-0.0901080576490564</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.609526482433406</v>
+        <v>-8.843136016441409</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">

--- a/trend_results/Rivers/KukuatNJohnstoneFarmBridge_14ad987cbd.xlsx
+++ b/trend_results/Rivers/KukuatNJohnstoneFarmBridge_14ad987cbd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Kuku at N. Johnstone Farm Bridge</t>
   </si>
   <si>
+    <t>Visual Clarity</t>
+  </si>
+  <si>
     <t>Dissolved Oxygen Concentration</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
     <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
   </si>
   <si>
@@ -139,7 +145,16 @@
     <t>RepSite</t>
   </si>
   <si>
-    <t>Likely increasing</t>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>Unlikely improving</t>
@@ -148,16 +163,16 @@
     <t>Virtually certain improving</t>
   </si>
   <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
+    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Extremely unlikely improving</t>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Horowhenua District</t>
@@ -172,6 +187,9 @@
     <t>Ohau_1b</t>
   </si>
   <si>
+    <t>m</t>
+  </si>
+  <si>
     <t>g/m3</t>
   </si>
   <si>
@@ -179,6 +197,9 @@
   </si>
   <si>
     <t>E. coli/100 mL</t>
+  </si>
+  <si>
+    <t>NTU/FNU</t>
   </si>
 </sst>
 </file>
@@ -536,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,43 +645,43 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2">
-        <v>0.7777805887479819</v>
+        <v>0.886402894652129</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.946428571428571</v>
+        <v>0.838709677419355</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.875</v>
+        <v>1.55</v>
       </c>
       <c r="K2">
-        <v>0.0903090659340658</v>
+        <v>0.09487012987012999</v>
       </c>
       <c r="L2">
-        <v>-0.116522432242832</v>
+        <v>-0.049406149427693</v>
       </c>
       <c r="M2">
-        <v>0.246651172932376</v>
+        <v>0.249308877142788</v>
       </c>
       <c r="N2">
-        <v>0.914522186674084</v>
+        <v>6.12065354000838</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2">
         <v>1785330</v>
@@ -669,19 +690,19 @@
         <v>5495215</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -695,43 +716,43 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>0.191445517051655</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.357142857142857</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.011</v>
+        <v>9.824999999999999</v>
       </c>
       <c r="K3">
-        <v>0.0003271673143665</v>
+        <v>-0.0324555707450446</v>
       </c>
       <c r="L3">
-        <v>-0.0002998768472906</v>
+        <v>-0.222758019280862</v>
       </c>
       <c r="M3">
-        <v>0.0010870535714285</v>
+        <v>0.102772892398953</v>
       </c>
       <c r="N3">
-        <v>2.97424831242348</v>
+        <v>-0.33033659791394</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q3">
         <v>1785330</v>
@@ -740,19 +761,19 @@
         <v>5495215</v>
       </c>
       <c r="S3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -766,43 +787,43 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4">
-        <v>0.997047304233703</v>
+        <v>0.0033656210835515</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.821428571428571</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>412</v>
+        <v>0.011</v>
       </c>
       <c r="K4">
-        <v>-77.5617626648161</v>
+        <v>0.0010409754797441</v>
       </c>
       <c r="L4">
-        <v>-133.656688543142</v>
+        <v>0.0004141156462585</v>
       </c>
       <c r="M4">
-        <v>-40.0400291104939</v>
+        <v>0.0016045393983507</v>
       </c>
       <c r="N4">
-        <v>-18.8256705497126</v>
+        <v>9.46341345221942</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q4">
         <v>1785330</v>
@@ -811,19 +832,19 @@
         <v>5495215</v>
       </c>
       <c r="S4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -840,40 +861,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5">
-        <v>0.9231705779203671</v>
+        <v>0.904514445653827</v>
       </c>
       <c r="G5">
-        <v>0.814814814814815</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.222222222222222</v>
+        <v>0.910714285714286</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.005</v>
+        <v>360</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-35.5193726355612</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-76.30634906477211</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.38900595293448</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-9.86649239876699</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q5">
         <v>1785330</v>
@@ -882,19 +903,19 @@
         <v>5495215</v>
       </c>
       <c r="S5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -911,40 +932,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>0.999887112880613</v>
+        <v>0.298964890723109</v>
       </c>
       <c r="G6">
-        <v>0.107142857142857</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H6">
-        <v>0.214285714285714</v>
+        <v>0.240740740740741</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0045</v>
+        <v>0.005</v>
       </c>
       <c r="K6">
-        <v>-0.0009487012987012</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.001337912087912</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>-0.0004933655151879</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-21.0822510822511</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q6">
         <v>1785330</v>
@@ -953,19 +974,19 @@
         <v>5495215</v>
       </c>
       <c r="S6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -982,40 +1003,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>0.168199467411071</v>
+        <v>0.999806198042275</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.160714285714286</v>
       </c>
       <c r="H7">
-        <v>0.910714285714286</v>
+        <v>0.196428571428571</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.921</v>
+        <v>0.004</v>
       </c>
       <c r="K7">
-        <v>0.0415690917314393</v>
+        <v>-0.0007617715564486</v>
       </c>
       <c r="L7">
-        <v>-0.028175637183492</v>
+        <v>-0.0011261562178828</v>
       </c>
       <c r="M7">
-        <v>0.128944607384299</v>
+        <v>-0.0003982911419956</v>
       </c>
       <c r="N7">
-        <v>4.51347358647549</v>
+        <v>-19.0442889112167</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q7">
         <v>1785330</v>
@@ -1024,19 +1045,19 @@
         <v>5495215</v>
       </c>
       <c r="S7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1053,40 +1074,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>0.009635406531566</v>
+        <v>0.999150115646523</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.785714285714286</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.125</v>
+        <v>0.8305</v>
       </c>
       <c r="K8">
-        <v>-0.07747839731392379</v>
+        <v>-0.145725266959799</v>
       </c>
       <c r="L8">
-        <v>-0.140966148248435</v>
+        <v>-0.221962471735947</v>
       </c>
       <c r="M8">
-        <v>-0.0214461758263376</v>
+        <v>-0.07202610447961311</v>
       </c>
       <c r="N8">
-        <v>-1.08741610265156</v>
+        <v>-17.5466907838409</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q8">
         <v>1785330</v>
@@ -1095,16 +1116,19 @@
         <v>5495215</v>
       </c>
       <c r="S8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="W8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1121,40 +1145,40 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9">
-        <v>0.168223607188914</v>
+        <v>0.405016967153788</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.982142857142857</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9425</v>
+        <v>7.12</v>
       </c>
       <c r="K9">
-        <v>0.0422377712330043</v>
+        <v>-0.0097990087412147</v>
       </c>
       <c r="L9">
-        <v>-0.0293515326752144</v>
+        <v>-0.0783957567597621</v>
       </c>
       <c r="M9">
-        <v>0.127632595646602</v>
+        <v>0.0440060240963853</v>
       </c>
       <c r="N9">
-        <v>4.48146113878029</v>
+        <v>-0.137626527264252</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q9">
         <v>1785330</v>
@@ -1163,19 +1187,16 @@
         <v>5495215</v>
       </c>
       <c r="S9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1192,40 +1213,40 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10">
-        <v>0.104084061753305</v>
+        <v>0.99889421123638</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.821428571428571</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.16</v>
+        <v>0.874</v>
       </c>
       <c r="K10">
-        <v>0.049045466763276</v>
+        <v>-0.145019864557717</v>
       </c>
       <c r="L10">
-        <v>-0.0129085868713117</v>
+        <v>-0.221557485940434</v>
       </c>
       <c r="M10">
-        <v>0.125948275862069</v>
+        <v>-0.07224031087669321</v>
       </c>
       <c r="N10">
-        <v>4.22805747959276</v>
+        <v>-16.592661848709</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>1785330</v>
@@ -1234,19 +1255,19 @@
         <v>5495215</v>
       </c>
       <c r="S10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1260,43 +1281,43 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>0.6215405335684639</v>
+        <v>0.997096413824008</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.571428571428571</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03</v>
+        <v>1.05</v>
       </c>
       <c r="K11">
-        <v>-0.0004969387755102</v>
+        <v>-0.120733516263877</v>
       </c>
       <c r="L11">
-        <v>-0.0025119301487116</v>
+        <v>-0.190837590105729</v>
       </c>
       <c r="M11">
-        <v>0.0013719629802319</v>
+        <v>-0.0506647076566085</v>
       </c>
       <c r="N11">
-        <v>-1.65646258503402</v>
+        <v>-11.4984301203692</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q11">
         <v>1785330</v>
@@ -1305,19 +1326,19 @@
         <v>5495215</v>
       </c>
       <c r="S11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1331,43 +1352,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>0.59675202974633</v>
+        <v>0.196617445182393</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.553571428571429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.157</v>
+        <v>0.031</v>
       </c>
       <c r="K12">
-        <v>0.0045895084913255</v>
+        <v>0.0012542925824175</v>
       </c>
       <c r="L12">
-        <v>-0.0237099729999718</v>
+        <v>-0.0007333285203013</v>
       </c>
       <c r="M12">
-        <v>0.0146490472286005</v>
+        <v>0.0030329403653207</v>
       </c>
       <c r="N12">
-        <v>2.92325381613094</v>
+        <v>4.04610510457285</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q12">
         <v>1785330</v>
@@ -1376,16 +1397,19 @@
         <v>5495215</v>
       </c>
       <c r="S12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="W12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1399,43 +1423,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.961392795562848</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.8</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>79</v>
+        <v>2.67</v>
       </c>
       <c r="K13">
-        <v>0.453163771712159</v>
+        <v>-0.278452953296703</v>
       </c>
       <c r="L13">
-        <v>-10.0468212365821</v>
+        <v>-0.472876165056509</v>
       </c>
       <c r="M13">
-        <v>7.06315297117198</v>
+        <v>-0.0459524460699562</v>
       </c>
       <c r="N13">
-        <v>0.573625027483745</v>
+        <v>-10.4289495616743</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q13">
         <v>1785330</v>
@@ -1444,16 +1468,19 @@
         <v>5495215</v>
       </c>
       <c r="S13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="W13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1461,67 +1488,1043 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>0.444330225639512</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.9690721649484541</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>9.76</v>
+      </c>
+      <c r="K14">
+        <v>-0.0180618131868132</v>
+      </c>
+      <c r="L14">
+        <v>-0.115585063294868</v>
+      </c>
+      <c r="M14">
+        <v>0.0750075947991069</v>
+      </c>
+      <c r="N14">
+        <v>-0.185059561340299</v>
+      </c>
+      <c r="O14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14">
+        <v>1785330</v>
+      </c>
+      <c r="R14">
+        <v>5495215</v>
+      </c>
+      <c r="S14" t="s">
+        <v>53</v>
+      </c>
+      <c r="T14" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" t="s">
+        <v>55</v>
+      </c>
+      <c r="V14" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15">
+        <v>0.458008315988935</v>
+      </c>
+      <c r="G15">
+        <v>0.0408163265306122</v>
+      </c>
+      <c r="H15">
+        <v>0.193877551020408</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.012</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>-0.0002445371251678</v>
+      </c>
+      <c r="M15">
+        <v>0.0003256796168227</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15">
+        <v>1785330</v>
+      </c>
+      <c r="R15">
+        <v>5495215</v>
+      </c>
+      <c r="S15" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" t="s">
+        <v>54</v>
+      </c>
+      <c r="U15" t="s">
+        <v>55</v>
+      </c>
+      <c r="V15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>0.8776881974365081</v>
+      </c>
+      <c r="G16">
+        <v>0.725274725274725</v>
+      </c>
+      <c r="H16">
+        <v>0.307692307692308</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>0.005</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16">
+        <v>1785330</v>
+      </c>
+      <c r="R16">
+        <v>5495215</v>
+      </c>
+      <c r="S16" t="s">
+        <v>53</v>
+      </c>
+      <c r="T16" t="s">
+        <v>54</v>
+      </c>
+      <c r="U16" t="s">
+        <v>55</v>
+      </c>
+      <c r="V16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17">
+        <v>0.999986559463593</v>
+      </c>
+      <c r="G17">
+        <v>0.0918367346938776</v>
+      </c>
+      <c r="H17">
+        <v>0.13265306122449</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.004</v>
+      </c>
+      <c r="K17">
+        <v>-0.0004459706959706</v>
+      </c>
+      <c r="L17">
+        <v>-0.000631400729336</v>
+      </c>
+      <c r="M17">
+        <v>-0.0002568314397792</v>
+      </c>
+      <c r="N17">
+        <v>-11.1492673992674</v>
+      </c>
+      <c r="O17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17">
+        <v>1785330</v>
+      </c>
+      <c r="R17">
+        <v>5495215</v>
+      </c>
+      <c r="S17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T17" t="s">
+        <v>54</v>
+      </c>
+      <c r="U17" t="s">
+        <v>55</v>
+      </c>
+      <c r="V17" t="s">
+        <v>56</v>
+      </c>
+      <c r="W17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <v>0.930899101733305</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.837</v>
+      </c>
+      <c r="K18">
+        <v>-0.0278780724450194</v>
+      </c>
+      <c r="L18">
+        <v>-0.0543928587782709</v>
+      </c>
+      <c r="M18">
+        <v>0.0039375930971593</v>
+      </c>
+      <c r="N18">
+        <v>-3.33071355376576</v>
+      </c>
+      <c r="O18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18">
+        <v>1785330</v>
+      </c>
+      <c r="R18">
+        <v>5495215</v>
+      </c>
+      <c r="S18" t="s">
+        <v>53</v>
+      </c>
+      <c r="T18" t="s">
+        <v>54</v>
+      </c>
+      <c r="U18" t="s">
+        <v>55</v>
+      </c>
+      <c r="V18" t="s">
+        <v>56</v>
+      </c>
+      <c r="W18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <v>0.052847434527167</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7.145</v>
+      </c>
+      <c r="K19">
+        <v>-0.0250559983088494</v>
+      </c>
+      <c r="L19">
+        <v>-0.0549241752940939</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>-0.350678772692084</v>
+      </c>
+      <c r="O19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19">
+        <v>1785330</v>
+      </c>
+      <c r="R19">
+        <v>5495215</v>
+      </c>
+      <c r="S19" t="s">
+        <v>53</v>
+      </c>
+      <c r="T19" t="s">
+        <v>54</v>
+      </c>
+      <c r="U19" t="s">
+        <v>55</v>
+      </c>
+      <c r="V19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <v>0.932108437212901</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.8784999999999999</v>
+      </c>
+      <c r="K20">
+        <v>-0.0269548070412999</v>
+      </c>
+      <c r="L20">
+        <v>-0.0518436228323147</v>
+      </c>
+      <c r="M20">
+        <v>0.0041789034587617</v>
+      </c>
+      <c r="N20">
+        <v>-3.06827627106431</v>
+      </c>
+      <c r="O20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20">
+        <v>1785330</v>
+      </c>
+      <c r="R20">
+        <v>5495215</v>
+      </c>
+      <c r="S20" t="s">
+        <v>53</v>
+      </c>
+      <c r="T20" t="s">
+        <v>54</v>
+      </c>
+      <c r="U20" t="s">
+        <v>55</v>
+      </c>
+      <c r="V20" t="s">
+        <v>56</v>
+      </c>
+      <c r="W20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21">
+        <v>0.918332699186425</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.663265306122449</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1.08</v>
+      </c>
+      <c r="K21">
+        <v>-0.0251462994836489</v>
+      </c>
+      <c r="L21">
+        <v>-0.0518774813734227</v>
+      </c>
+      <c r="M21">
+        <v>0.0028170423867922</v>
+      </c>
+      <c r="N21">
+        <v>-2.32836106330082</v>
+      </c>
+      <c r="O21" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21">
+        <v>1785330</v>
+      </c>
+      <c r="R21">
+        <v>5495215</v>
+      </c>
+      <c r="S21" t="s">
+        <v>53</v>
+      </c>
+      <c r="T21" t="s">
+        <v>54</v>
+      </c>
+      <c r="U21" t="s">
+        <v>55</v>
+      </c>
+      <c r="V21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22">
+        <v>0.326299994979922</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0.459183673469388</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.031</v>
+      </c>
+      <c r="K22">
+        <v>0.0002859099804305</v>
+      </c>
+      <c r="L22">
+        <v>-0.0004989210152974</v>
+      </c>
+      <c r="M22">
+        <v>0.001034129729873</v>
+      </c>
+      <c r="N22">
+        <v>0.922290259453317</v>
+      </c>
+      <c r="O22" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22">
+        <v>1785330</v>
+      </c>
+      <c r="R22">
+        <v>5495215</v>
+      </c>
+      <c r="S22" t="s">
+        <v>53</v>
+      </c>
+      <c r="T22" t="s">
+        <v>54</v>
+      </c>
+      <c r="U22" t="s">
+        <v>55</v>
+      </c>
+      <c r="V22" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C14">
+      <c r="C23">
         <v>5</v>
       </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.16</v>
+      </c>
+      <c r="K23">
+        <v>0.012689374547523</v>
+      </c>
+      <c r="L23">
+        <v>-0.0237099729999718</v>
+      </c>
+      <c r="M23">
+        <v>0.023345326216274</v>
+      </c>
+      <c r="N23">
+        <v>7.93085909220189</v>
+      </c>
+      <c r="O23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23">
+        <v>1785330</v>
+      </c>
+      <c r="R23">
+        <v>5495215</v>
+      </c>
+      <c r="S23" t="s">
+        <v>53</v>
+      </c>
+      <c r="T23" t="s">
+        <v>54</v>
+      </c>
+      <c r="U23" t="s">
+        <v>55</v>
+      </c>
+      <c r="V23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="F14">
-        <v>0.04320536648685</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>4.162</v>
-      </c>
-      <c r="K14">
-        <v>-0.368051321004291</v>
-      </c>
-      <c r="L14">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>80</v>
+      </c>
+      <c r="K24">
+        <v>2.67073283378616</v>
+      </c>
+      <c r="L24">
+        <v>-11.8947083704228</v>
+      </c>
+      <c r="M24">
+        <v>10.8069738076071</v>
+      </c>
+      <c r="N24">
+        <v>3.3384160422327</v>
+      </c>
+      <c r="O24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q24">
+        <v>1785330</v>
+      </c>
+      <c r="R24">
+        <v>5495215</v>
+      </c>
+      <c r="S24" t="s">
+        <v>53</v>
+      </c>
+      <c r="T24" t="s">
+        <v>54</v>
+      </c>
+      <c r="U24" t="s">
+        <v>55</v>
+      </c>
+      <c r="V24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>3.89</v>
+      </c>
+      <c r="K25">
+        <v>-0.416452960454656</v>
+      </c>
+      <c r="L25">
         <v>-1.12283921541135</v>
       </c>
-      <c r="M14">
-        <v>-0.0901080576490564</v>
-      </c>
-      <c r="N14">
-        <v>-8.843136016441409</v>
-      </c>
-      <c r="O14" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="M25">
+        <v>0.0048395808194393</v>
+      </c>
+      <c r="N25">
+        <v>-10.7057316312251</v>
+      </c>
+      <c r="O25" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" t="s">
         <v>47</v>
       </c>
-      <c r="Q14">
-        <v>1785330</v>
-      </c>
-      <c r="R14">
-        <v>5495215</v>
-      </c>
-      <c r="S14" t="s">
-        <v>48</v>
-      </c>
-      <c r="T14" t="s">
-        <v>49</v>
-      </c>
-      <c r="U14" t="s">
-        <v>50</v>
-      </c>
-      <c r="V14" t="s">
-        <v>51</v>
+      <c r="Q25">
+        <v>1785330</v>
+      </c>
+      <c r="R25">
+        <v>5495215</v>
+      </c>
+      <c r="S25" t="s">
+        <v>53</v>
+      </c>
+      <c r="T25" t="s">
+        <v>54</v>
+      </c>
+      <c r="U25" t="s">
+        <v>55</v>
+      </c>
+      <c r="V25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26">
+        <v>0.174041311816462</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.175</v>
+      </c>
+      <c r="K26">
+        <v>-0.0111135719714532</v>
+      </c>
+      <c r="L26">
+        <v>-0.0240885871319097</v>
+      </c>
+      <c r="M26">
+        <v>0.0035152217322452</v>
+      </c>
+      <c r="N26">
+        <v>-6.35061255511613</v>
+      </c>
+      <c r="O26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q26">
+        <v>1785330</v>
+      </c>
+      <c r="R26">
+        <v>5495215</v>
+      </c>
+      <c r="S26" t="s">
+        <v>53</v>
+      </c>
+      <c r="T26" t="s">
+        <v>54</v>
+      </c>
+      <c r="U26" t="s">
+        <v>55</v>
+      </c>
+      <c r="V26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27">
+        <v>0.264684053092399</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>83.53</v>
+      </c>
+      <c r="K27">
+        <v>-1.73825902383019</v>
+      </c>
+      <c r="L27">
+        <v>-3.64415163888419</v>
+      </c>
+      <c r="M27">
+        <v>1.27507755832506</v>
+      </c>
+      <c r="N27">
+        <v>-2.0809996693765</v>
+      </c>
+      <c r="O27" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q27">
+        <v>1785330</v>
+      </c>
+      <c r="R27">
+        <v>5495215</v>
+      </c>
+      <c r="S27" t="s">
+        <v>53</v>
+      </c>
+      <c r="T27" t="s">
+        <v>54</v>
+      </c>
+      <c r="U27" t="s">
+        <v>55</v>
+      </c>
+      <c r="V27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28">
+        <v>0.087654040404137</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>4.05</v>
+      </c>
+      <c r="K28">
+        <v>-0.182153687091077</v>
+      </c>
+      <c r="L28">
+        <v>-0.306068464446701</v>
+      </c>
+      <c r="M28">
+        <v>0.0175407579408643</v>
+      </c>
+      <c r="N28">
+        <v>-4.49762190348339</v>
+      </c>
+      <c r="O28" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28">
+        <v>1785330</v>
+      </c>
+      <c r="R28">
+        <v>5495215</v>
+      </c>
+      <c r="S28" t="s">
+        <v>53</v>
+      </c>
+      <c r="T28" t="s">
+        <v>54</v>
+      </c>
+      <c r="U28" t="s">
+        <v>55</v>
+      </c>
+      <c r="V28" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
